--- a/gráficas_hdt5.xlsx
+++ b/gráficas_hdt5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Hoja de trabajo 5</t>
   </si>
@@ -49,12 +49,24 @@
   <si>
     <t>Instrucciones</t>
   </si>
+  <si>
+    <t>Parámetros iniciales</t>
+  </si>
+  <si>
+    <t>Cambio1: Memoria 200</t>
+  </si>
+  <si>
+    <t>Cambio2: 6 instrucciones por unidad de tiempo</t>
+  </si>
+  <si>
+    <t>Cambio3: 2 procesadores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +74,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,12 +116,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +174,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parametros iniciales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -127,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -150,7 +264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -174,7 +288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$5:$F$9</c:f>
+              <c:f>Hoja1!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -203,7 +317,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$10</c:f>
+              <c:f>Hoja1!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -226,7 +340,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -250,7 +364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$10:$F$14</c:f>
+              <c:f>Hoja1!$G$10:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -279,7 +393,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$15</c:f>
+              <c:f>Hoja1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -302,7 +416,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -326,7 +440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$15:$F$19</c:f>
+              <c:f>Hoja1!$G$15:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -369,6 +483,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -450,6 +620,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -577,6 +803,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cambio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Memoria 200</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -588,7 +884,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -611,7 +907,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -635,7 +931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$5:$N$9</c:f>
+              <c:f>Hoja1!$G$27:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -664,7 +960,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$10</c:f>
+              <c:f>Hoja1!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -687,7 +983,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -711,7 +1007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$10:$N$14</c:f>
+              <c:f>Hoja1!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -740,7 +1036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$15</c:f>
+              <c:f>Hoja1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -763,7 +1059,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -787,7 +1083,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$15:$N$19</c:f>
+              <c:f>Hoja1!$G$37:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -830,6 +1126,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de procesos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -911,6 +1268,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Teimpo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1038,6 +1456,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Cambio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t>6 instrucciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1049,7 +1537,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,7 +1560,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1096,7 +1584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$23:$F$27</c:f>
+              <c:f>Hoja1!$G$49:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1125,7 +1613,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$10</c:f>
+              <c:f>Hoja1!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1148,7 +1636,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1172,7 +1660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$28:$F$32</c:f>
+              <c:f>Hoja1!$G$54:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1201,7 +1689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$15</c:f>
+              <c:f>Hoja1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,7 +1712,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1248,7 +1736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$33:$F$37</c:f>
+              <c:f>Hoja1!$G$59:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1291,6 +1779,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1372,6 +1916,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1499,6 +2099,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Cambio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t>2 procesadores</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1510,7 +2180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1533,7 +2203,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1557,7 +2227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$23:$N$27</c:f>
+              <c:f>Hoja1!$G$72:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1586,7 +2256,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$10</c:f>
+              <c:f>Hoja1!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1609,7 +2279,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1633,7 +2303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$28:$N$32</c:f>
+              <c:f>Hoja1!$G$77:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1662,7 +2332,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$15</c:f>
+              <c:f>Hoja1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1685,7 +2355,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$5:$E$9</c:f>
+              <c:f>Hoja1!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1709,7 +2379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$N$33:$N$37</c:f>
+              <c:f>Hoja1!$G$82:$G$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1752,6 +2422,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1833,6 +2559,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4174,16 +4956,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4204,16 +4986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4236,16 +5018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4268,16 +5050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4296,6 +5078,87 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="16783050"/>
+          <a:ext cx="4343400" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="57150" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>La mejor estrategia para reducir el tiempo promedio por proceso</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t>, es la de AUMENTAR LA VELOCIDAD DEL PROCESADOR puede apreciarse cómo los tiempos en las gráficas son considerablemente menores a la primera corrida. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t>Los tiempos obtenidos entre el cambio 2 y el cambio 3, son muy similares, pero tanto estos como la desviación estándar es menor en el caso del cambio 3.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
+            <a:t>Además, por lo general es menos costoso aumentar la velocidad de un procesador que adquirir otro para que contribuya al procesamiento de instrucciones. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4564,1437 +5427,1588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="AE31" sqref="AE31"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10.259414</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.0815760000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>38.465943000000003</v>
+      </c>
+      <c r="H6" s="3">
+        <v>18.756184000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>88.660567999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43.227944000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>150</v>
+      </c>
+      <c r="G8" s="3">
+        <v>138.31477899999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>72.799969000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>184.37446700000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>99.343209999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4">
+        <v>16.054829999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.1889350000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43.739637999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>21.407923</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4">
+        <v>94.125283999999994</v>
+      </c>
+      <c r="H12" s="4">
+        <v>47.316218999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>150</v>
+      </c>
+      <c r="G13" s="4">
+        <v>143.479612</v>
+      </c>
+      <c r="H13" s="4">
+        <v>77.025709000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <v>200</v>
+      </c>
+      <c r="G14" s="4">
+        <v>189.72306699999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>103.921847</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <v>25</v>
+      </c>
+      <c r="G15" s="5">
+        <v>21.021563</v>
+      </c>
+      <c r="H15" s="5">
+        <v>9.671462</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
+        <v>47.979928000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <v>24.182745000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>99.454390000000004</v>
+      </c>
+      <c r="H17" s="5">
+        <v>50.880788000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>150</v>
+      </c>
+      <c r="G18" s="5">
+        <v>147.58836700000001</v>
+      </c>
+      <c r="H18" s="5">
+        <v>80.543931999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5">
+        <v>194.001947</v>
+      </c>
+      <c r="H19" s="5">
+        <v>107.66119999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
+      <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D27" s="3">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.259414</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6.0815760000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>200</v>
+      </c>
+      <c r="F28" s="3">
+        <v>50</v>
+      </c>
+      <c r="G28" s="3">
+        <v>42.445943</v>
+      </c>
+      <c r="H28" s="3">
+        <v>22.360461999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>200</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="G29" s="3">
+        <v>95.557233999999994</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43.339331999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>200</v>
+      </c>
+      <c r="F30" s="3">
+        <v>150</v>
+      </c>
+      <c r="G30" s="3">
+        <v>144.96811299999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>72.633555000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>200</v>
+      </c>
+      <c r="F31" s="3">
+        <v>200</v>
+      </c>
+      <c r="G31" s="3">
+        <v>191.52780000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>99.162704000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
+        <v>200</v>
+      </c>
+      <c r="F32" s="4">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>10.259414</v>
-      </c>
-      <c r="G5">
-        <v>6.0815760000000001</v>
-      </c>
-      <c r="I5">
+      <c r="G32" s="4">
+        <v>16.054483000000001</v>
+      </c>
+      <c r="H32" s="4">
+        <v>8.1889350000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="C33" s="4">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>200</v>
+      </c>
+      <c r="F33" s="4">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4">
+        <v>49.026305000000001</v>
+      </c>
+      <c r="H33" s="4">
+        <v>24.094049999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>200</v>
+      </c>
+      <c r="F34" s="4">
+        <v>100</v>
+      </c>
+      <c r="G34" s="4">
+        <v>100.975284</v>
+      </c>
+      <c r="H34" s="4">
+        <v>46.708686</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>200</v>
+      </c>
+      <c r="F35" s="4">
+        <v>150</v>
+      </c>
+      <c r="G35" s="4">
+        <v>150.13294500000001</v>
+      </c>
+      <c r="H35" s="4">
+        <v>76.586291000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>200</v>
+      </c>
+      <c r="F36" s="4">
+        <v>200</v>
+      </c>
+      <c r="G36" s="4">
+        <v>196.87639999999999</v>
+      </c>
+      <c r="H36" s="4">
+        <v>103.544464</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>200</v>
+      </c>
+      <c r="F37" s="5">
+        <v>25</v>
+      </c>
+      <c r="G37" s="5">
+        <v>21.448229999999999</v>
+      </c>
+      <c r="H37" s="5">
+        <v>9.8372930000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>200</v>
+      </c>
+      <c r="F38" s="5">
+        <v>50</v>
+      </c>
+      <c r="G38" s="5">
+        <v>53.739927999999999</v>
+      </c>
+      <c r="H38" s="5">
+        <v>25.185600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5">
+        <v>105.43438999999999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>49.597213000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>200</v>
+      </c>
+      <c r="F40" s="5">
+        <v>150</v>
+      </c>
+      <c r="G40" s="5">
+        <v>154.303922</v>
+      </c>
+      <c r="H40" s="5">
+        <v>79.816503999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>200</v>
+      </c>
+      <c r="F41" s="5">
+        <v>200</v>
+      </c>
+      <c r="G41" s="5">
+        <v>201.15528</v>
+      </c>
+      <c r="H41" s="5">
+        <v>107.138553</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="L5">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>25</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2.2644470000000001</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1.5840780000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>100</v>
+      </c>
+      <c r="F50" s="3">
+        <v>50</v>
+      </c>
+      <c r="G50" s="3">
+        <v>13.243219</v>
+      </c>
+      <c r="H50" s="3">
+        <v>7.4985280000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>100</v>
+      </c>
+      <c r="F51" s="3">
+        <v>100</v>
+      </c>
+      <c r="G51" s="3">
+        <v>37.920568000000003</v>
+      </c>
+      <c r="H51" s="3">
+        <v>17.927831000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>150</v>
+      </c>
+      <c r="G52" s="3">
+        <v>63.234779000000003</v>
+      </c>
+      <c r="H52" s="3">
+        <v>32.189571000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>100</v>
+      </c>
+      <c r="F53" s="3">
         <v>200</v>
       </c>
-      <c r="M5">
+      <c r="G53" s="3">
+        <v>85.916967</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45.145789000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>100</v>
+      </c>
+      <c r="F54" s="4">
         <v>25</v>
       </c>
-      <c r="N5">
-        <v>10.259414</v>
-      </c>
-      <c r="O5">
-        <v>6.0815760000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G54" s="4">
+        <v>4.5563739999999999</v>
+      </c>
+      <c r="H54" s="4">
+        <v>2.30341</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C55" s="4">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>100</v>
+      </c>
+      <c r="F55" s="4">
+        <v>50</v>
+      </c>
+      <c r="G55" s="4">
+        <v>18.539638</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9.3659759999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>100</v>
+      </c>
+      <c r="F56" s="4">
+        <v>100</v>
+      </c>
+      <c r="G56" s="4">
+        <v>43.331949999999999</v>
+      </c>
+      <c r="H56" s="4">
+        <v>21.676853999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>100</v>
+      </c>
+      <c r="F57" s="4">
+        <v>150</v>
+      </c>
+      <c r="G57" s="4">
+        <v>68.370722999999998</v>
+      </c>
+      <c r="H57" s="4">
+        <v>36.254807999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>100</v>
+      </c>
+      <c r="F58" s="4">
+        <v>200</v>
+      </c>
+      <c r="G58" s="4">
+        <v>91.265567000000004</v>
+      </c>
+      <c r="H58" s="4">
+        <v>49.566451999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>100</v>
+      </c>
+      <c r="F59" s="5">
+        <v>25</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8.8548969999999994</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4.3405069999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>100</v>
+      </c>
+      <c r="F60" s="5">
+        <v>50</v>
+      </c>
+      <c r="G60" s="5">
+        <v>22.726593999999999</v>
+      </c>
+      <c r="H60" s="5">
+        <v>12.002485</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>100</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
+      <c r="G61" s="5">
+        <v>47.661057</v>
+      </c>
+      <c r="H61" s="5">
+        <v>25.183441999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>100</v>
+      </c>
+      <c r="F62" s="5">
+        <v>150</v>
+      </c>
+      <c r="G62" s="5">
+        <v>72.479478</v>
+      </c>
+      <c r="H62" s="5">
+        <v>39.739756999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>100</v>
+      </c>
+      <c r="F63" s="5">
+        <v>200</v>
+      </c>
+      <c r="G63" s="5">
+        <v>95.544447000000005</v>
+      </c>
+      <c r="H63" s="5">
+        <v>53.276901000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f>AVERAGE(H49:H63)</f>
+        <v>23.870425933333333</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="F71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="3">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E72" s="3">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="F72" s="3">
+        <v>25</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2.9853149999999999</v>
+      </c>
+      <c r="H72" s="3">
+        <v>2.0468510000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3">
+        <v>100</v>
+      </c>
+      <c r="F73" s="3">
         <v>50</v>
       </c>
-      <c r="F6">
-        <v>38.465943000000003</v>
-      </c>
-      <c r="G6">
-        <v>18.756184000000001</v>
-      </c>
-      <c r="I6">
+      <c r="G73" s="3">
+        <v>14.330405000000001</v>
+      </c>
+      <c r="H73" s="3">
+        <v>7.8270660000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3">
+        <v>100</v>
+      </c>
+      <c r="F74" s="3">
+        <v>100</v>
+      </c>
+      <c r="G74" s="3">
+        <v>39.219827000000002</v>
+      </c>
+      <c r="H74" s="3">
+        <v>18.008557</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>100</v>
+      </c>
+      <c r="F75" s="3">
+        <v>150</v>
+      </c>
+      <c r="G75" s="3">
+        <v>64.220890999999995</v>
+      </c>
+      <c r="H75" s="3">
+        <v>32.399625</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>87.035833999999994</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45.281413999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4">
+        <v>5</v>
+      </c>
+      <c r="E77" s="4">
+        <v>100</v>
+      </c>
+      <c r="F77" s="4">
+        <v>25</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.4237960000000003</v>
+      </c>
+      <c r="H77" s="4">
+        <v>3.2413280000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4">
+        <v>5</v>
+      </c>
+      <c r="E78" s="4">
+        <v>100</v>
+      </c>
+      <c r="F78" s="4">
+        <v>50</v>
+      </c>
+      <c r="G78" s="4">
+        <v>19.420487999999999</v>
+      </c>
+      <c r="H78" s="4">
+        <v>9.4077789999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4">
+        <v>5</v>
+      </c>
+      <c r="E79" s="4">
+        <v>100</v>
+      </c>
+      <c r="F79" s="4">
+        <v>100</v>
+      </c>
+      <c r="G79" s="4">
+        <v>44.551476000000001</v>
+      </c>
+      <c r="H79" s="4">
+        <v>21.599301000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5</v>
+      </c>
+      <c r="E80" s="4">
+        <v>100</v>
+      </c>
+      <c r="F80" s="4">
+        <v>150</v>
+      </c>
+      <c r="G80" s="4">
+        <v>69.387711999999993</v>
+      </c>
+      <c r="H80" s="4">
+        <v>36.392364999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4">
+        <v>100</v>
+      </c>
+      <c r="F81" s="4">
+        <v>200</v>
+      </c>
+      <c r="G81" s="4">
+        <v>92.377916999999997</v>
+      </c>
+      <c r="H81" s="4">
+        <v>49.668751</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="E82" s="5">
+        <v>100</v>
+      </c>
+      <c r="F82" s="5">
+        <v>25</v>
+      </c>
+      <c r="G82" s="5">
+        <v>10.182456999999999</v>
+      </c>
+      <c r="H82" s="5">
+        <v>4.7627329999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
+        <v>100</v>
+      </c>
+      <c r="F83" s="5">
+        <v>50</v>
+      </c>
+      <c r="G83" s="5">
+        <v>23.558786000000001</v>
+      </c>
+      <c r="H83" s="5">
+        <v>11.754739000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5">
+        <v>3</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>100</v>
+      </c>
+      <c r="F84" s="5">
+        <v>100</v>
+      </c>
+      <c r="G84" s="5">
+        <v>48.848962</v>
+      </c>
+      <c r="H84" s="5">
+        <v>25.018471999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5">
+        <v>3</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>100</v>
+      </c>
+      <c r="F85" s="5">
+        <v>150</v>
+      </c>
+      <c r="G85" s="5">
+        <v>73.491765000000001</v>
+      </c>
+      <c r="H85" s="5">
+        <v>39.839187000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <v>100</v>
+      </c>
+      <c r="F86" s="5">
         <v>200</v>
       </c>
-      <c r="M6">
-        <v>50</v>
-      </c>
-      <c r="N6">
-        <v>42.445943</v>
-      </c>
-      <c r="O6">
-        <v>22.360461999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>88.660567999999998</v>
-      </c>
-      <c r="G7">
-        <v>43.227944000000001</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>200</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
-      </c>
-      <c r="N7">
-        <v>95.557233999999994</v>
-      </c>
-      <c r="O7">
-        <v>43.339331999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <v>138.31477899999999</v>
-      </c>
-      <c r="G8">
-        <v>72.799969000000004</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>200</v>
-      </c>
-      <c r="M8">
-        <v>150</v>
-      </c>
-      <c r="N8">
-        <v>144.96811299999999</v>
-      </c>
-      <c r="O8">
-        <v>72.633555000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>184.37446700000001</v>
-      </c>
-      <c r="G9">
-        <v>99.343209999999999</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-      <c r="M9">
-        <v>200</v>
-      </c>
-      <c r="N9">
-        <v>191.52780000000001</v>
-      </c>
-      <c r="O9">
-        <v>99.162704000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>16.054829999999999</v>
-      </c>
-      <c r="G10">
-        <v>8.1889350000000007</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>200</v>
-      </c>
-      <c r="M10">
-        <v>25</v>
-      </c>
-      <c r="N10">
-        <v>16.054483000000001</v>
-      </c>
-      <c r="O10">
-        <v>8.1889350000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>43.739637999999999</v>
-      </c>
-      <c r="G11">
-        <v>21.407923</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>200</v>
-      </c>
-      <c r="M11">
-        <v>50</v>
-      </c>
-      <c r="N11">
-        <v>49.026305000000001</v>
-      </c>
-      <c r="O11">
-        <v>24.094049999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>94.125283999999994</v>
-      </c>
-      <c r="G12">
-        <v>47.316218999999997</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>200</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <v>100.975284</v>
-      </c>
-      <c r="O12">
-        <v>46.708686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <v>143.479612</v>
-      </c>
-      <c r="G13">
-        <v>77.025709000000006</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>200</v>
-      </c>
-      <c r="M13">
-        <v>150</v>
-      </c>
-      <c r="N13">
-        <v>150.13294500000001</v>
-      </c>
-      <c r="O13">
-        <v>76.586291000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <v>189.72306699999999</v>
-      </c>
-      <c r="G14">
-        <v>103.921847</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>200</v>
-      </c>
-      <c r="M14">
-        <v>200</v>
-      </c>
-      <c r="N14">
-        <v>196.87639999999999</v>
-      </c>
-      <c r="O14">
-        <v>103.544464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>21.021563</v>
-      </c>
-      <c r="G15">
-        <v>9.671462</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>200</v>
-      </c>
-      <c r="M15">
-        <v>25</v>
-      </c>
-      <c r="N15">
-        <v>21.448229999999999</v>
-      </c>
-      <c r="O15">
-        <v>9.8372930000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>47.979928000000001</v>
-      </c>
-      <c r="G16">
-        <v>24.182745000000001</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>200</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>53.739927999999999</v>
-      </c>
-      <c r="O16">
-        <v>25.185600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>99.454390000000004</v>
-      </c>
-      <c r="G17">
-        <v>50.880788000000003</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>200</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17">
-        <v>105.43438999999999</v>
-      </c>
-      <c r="O17">
-        <v>49.597213000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>150</v>
-      </c>
-      <c r="F18">
-        <v>147.58836700000001</v>
-      </c>
-      <c r="G18">
-        <v>80.543931999999998</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>200</v>
-      </c>
-      <c r="M18">
-        <v>150</v>
-      </c>
-      <c r="N18">
-        <v>154.303922</v>
-      </c>
-      <c r="O18">
-        <v>79.816503999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <v>194.001947</v>
-      </c>
-      <c r="G19">
-        <v>107.66119999999999</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>200</v>
-      </c>
-      <c r="M19">
-        <v>200</v>
-      </c>
-      <c r="N19">
-        <v>201.15528</v>
-      </c>
-      <c r="O19">
-        <v>107.138553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>2.2644470000000001</v>
-      </c>
-      <c r="G23">
-        <v>1.5840780000000001</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="M23">
-        <v>25</v>
-      </c>
-      <c r="N23">
-        <v>2.9853149999999999</v>
-      </c>
-      <c r="O23">
-        <v>2.0468510000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>13.243219</v>
-      </c>
-      <c r="G24">
-        <v>7.4985280000000003</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
-      </c>
-      <c r="M24">
-        <v>50</v>
-      </c>
-      <c r="N24">
-        <v>14.330405000000001</v>
-      </c>
-      <c r="O24">
-        <v>7.8270660000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>37.920568000000003</v>
-      </c>
-      <c r="G25">
-        <v>17.927831000000001</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="N25">
-        <v>39.219827000000002</v>
-      </c>
-      <c r="O25">
-        <v>18.008557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>150</v>
-      </c>
-      <c r="F26">
-        <v>63.234779000000003</v>
-      </c>
-      <c r="G26">
-        <v>32.189571000000001</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-      <c r="M26">
-        <v>150</v>
-      </c>
-      <c r="N26">
-        <v>64.220890999999995</v>
-      </c>
-      <c r="O26">
-        <v>32.399625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
-        <v>200</v>
-      </c>
-      <c r="F27">
-        <v>85.916967</v>
-      </c>
-      <c r="G27">
-        <v>45.145789000000001</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="M27">
-        <v>200</v>
-      </c>
-      <c r="N27">
-        <v>87.035833999999994</v>
-      </c>
-      <c r="O27">
-        <v>45.281413999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>4.5563739999999999</v>
-      </c>
-      <c r="G28">
-        <v>2.30341</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>100</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>5.4237960000000003</v>
-      </c>
-      <c r="O28">
-        <v>3.2413280000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>18.539638</v>
-      </c>
-      <c r="G29">
-        <v>9.3659759999999999</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>50</v>
-      </c>
-      <c r="N29">
-        <v>19.420487999999999</v>
-      </c>
-      <c r="O29">
-        <v>9.4077789999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>43.331949999999999</v>
-      </c>
-      <c r="G30">
-        <v>21.676853999999999</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="N30">
-        <v>44.551476000000001</v>
-      </c>
-      <c r="O30">
-        <v>21.599301000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>150</v>
-      </c>
-      <c r="F31">
-        <v>68.370722999999998</v>
-      </c>
-      <c r="G31">
-        <v>36.254807999999997</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="M31">
-        <v>150</v>
-      </c>
-      <c r="N31">
-        <v>69.387711999999993</v>
-      </c>
-      <c r="O31">
-        <v>36.392364999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <v>200</v>
-      </c>
-      <c r="F32">
-        <v>91.265567000000004</v>
-      </c>
-      <c r="G32">
-        <v>49.566451999999998</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-      <c r="M32">
-        <v>200</v>
-      </c>
-      <c r="N32">
-        <v>92.377916999999997</v>
-      </c>
-      <c r="O32">
-        <v>49.668751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>25</v>
-      </c>
-      <c r="F33">
-        <v>8.8548969999999994</v>
-      </c>
-      <c r="G33">
-        <v>4.3405069999999997</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>100</v>
-      </c>
-      <c r="M33">
-        <v>25</v>
-      </c>
-      <c r="N33">
-        <v>10.182456999999999</v>
-      </c>
-      <c r="O33">
-        <v>4.7627329999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>50</v>
-      </c>
-      <c r="F34">
-        <v>22.726593999999999</v>
-      </c>
-      <c r="G34">
-        <v>12.002485</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>100</v>
-      </c>
-      <c r="M34">
-        <v>50</v>
-      </c>
-      <c r="N34">
-        <v>23.558786000000001</v>
-      </c>
-      <c r="O34">
-        <v>11.754739000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <v>47.661057</v>
-      </c>
-      <c r="G35">
-        <v>25.183441999999999</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-      <c r="M35">
-        <v>100</v>
-      </c>
-      <c r="N35">
-        <v>48.848962</v>
-      </c>
-      <c r="O35">
-        <v>25.018471999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36">
-        <v>150</v>
-      </c>
-      <c r="F36">
-        <v>72.479478</v>
-      </c>
-      <c r="G36">
-        <v>39.739756999999997</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
-      </c>
-      <c r="M36">
-        <v>150</v>
-      </c>
-      <c r="N36">
-        <v>73.491765000000001</v>
-      </c>
-      <c r="O36">
-        <v>39.839187000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>200</v>
-      </c>
-      <c r="F37">
-        <v>95.544447000000005</v>
-      </c>
-      <c r="G37">
-        <v>53.276901000000002</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-      <c r="M37">
-        <v>200</v>
-      </c>
-      <c r="N37">
+      <c r="G86" s="5">
         <v>96.651583000000002</v>
       </c>
-      <c r="O37">
+      <c r="H86" s="5">
         <v>53.356248000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f>AVERAGE(H72:H86)</f>
+        <v>24.040294399999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>